--- a/Hello.xlsx
+++ b/Hello.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Active Directory Notes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Waheed Nawaz\Desktop\Git\TestProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="450" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="900" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,17 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="2">
+  <si>
+    <t>Helo</t>
+  </si>
+  <si>
+    <t>Waheed</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -336,14 +347,87 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Hello.xlsx
+++ b/Hello.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="900" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="1350" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="2">
   <si>
     <t>Helo</t>
   </si>
@@ -347,79 +347,295 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection sqref="A1:K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
+        <v>0</v>
+      </c>
+      <c r="J5" t="s">
+        <v>1</v>
+      </c>
+      <c r="K5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6" t="s">
+        <v>1</v>
+      </c>
+      <c r="K6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s">
+        <v>0</v>
+      </c>
+      <c r="J7" t="s">
+        <v>1</v>
+      </c>
+      <c r="K7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>0</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J8" t="s">
+        <v>1</v>
+      </c>
+      <c r="K8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>

--- a/Hello.xlsx
+++ b/Hello.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Waheed Nawaz\Desktop\Git\TestProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vroozi\Desktop\Bash\TestProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1350" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="1950" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="2">
   <si>
     <t>Helo</t>
   </si>
@@ -347,13 +347,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:K8"/>
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -368,24 +371,6 @@
       <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" t="s">
-        <v>1</v>
-      </c>
       <c r="K1" t="s">
         <v>0</v>
       </c>
@@ -403,24 +388,6 @@
       <c r="D2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J2" t="s">
-        <v>1</v>
-      </c>
       <c r="K2" t="s">
         <v>0</v>
       </c>
@@ -438,24 +405,6 @@
       <c r="D3" t="s">
         <v>1</v>
       </c>
-      <c r="E3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H3" t="s">
-        <v>1</v>
-      </c>
-      <c r="I3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J3" t="s">
-        <v>1</v>
-      </c>
       <c r="K3" t="s">
         <v>0</v>
       </c>
@@ -473,24 +422,6 @@
       <c r="D4" t="s">
         <v>1</v>
       </c>
-      <c r="E4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s">
-        <v>0</v>
-      </c>
-      <c r="H4" t="s">
-        <v>1</v>
-      </c>
-      <c r="I4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J4" t="s">
-        <v>1</v>
-      </c>
       <c r="K4" t="s">
         <v>0</v>
       </c>
@@ -508,24 +439,6 @@
       <c r="D5" t="s">
         <v>1</v>
       </c>
-      <c r="E5" t="s">
-        <v>0</v>
-      </c>
-      <c r="F5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G5" t="s">
-        <v>0</v>
-      </c>
-      <c r="H5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I5" t="s">
-        <v>0</v>
-      </c>
-      <c r="J5" t="s">
-        <v>1</v>
-      </c>
       <c r="K5" t="s">
         <v>0</v>
       </c>
@@ -543,24 +456,6 @@
       <c r="D6" t="s">
         <v>1</v>
       </c>
-      <c r="E6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H6" t="s">
-        <v>1</v>
-      </c>
-      <c r="I6" t="s">
-        <v>0</v>
-      </c>
-      <c r="J6" t="s">
-        <v>1</v>
-      </c>
       <c r="K6" t="s">
         <v>0</v>
       </c>
@@ -578,24 +473,6 @@
       <c r="D7" t="s">
         <v>1</v>
       </c>
-      <c r="E7" t="s">
-        <v>0</v>
-      </c>
-      <c r="F7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G7" t="s">
-        <v>0</v>
-      </c>
-      <c r="H7" t="s">
-        <v>1</v>
-      </c>
-      <c r="I7" t="s">
-        <v>0</v>
-      </c>
-      <c r="J7" t="s">
-        <v>1</v>
-      </c>
       <c r="K7" t="s">
         <v>0</v>
       </c>
@@ -613,24 +490,6 @@
       <c r="D8" t="s">
         <v>1</v>
       </c>
-      <c r="E8" t="s">
-        <v>0</v>
-      </c>
-      <c r="F8" t="s">
-        <v>1</v>
-      </c>
-      <c r="G8" t="s">
-        <v>0</v>
-      </c>
-      <c r="H8" t="s">
-        <v>1</v>
-      </c>
-      <c r="I8" t="s">
-        <v>0</v>
-      </c>
-      <c r="J8" t="s">
-        <v>1</v>
-      </c>
       <c r="K8" t="s">
         <v>0</v>
       </c>
@@ -641,6 +500,356 @@
       </c>
       <c r="B9" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1234567489</v>
+      </c>
+      <c r="B15">
+        <v>1234567489</v>
+      </c>
+      <c r="C15">
+        <v>1234567489</v>
+      </c>
+      <c r="D15">
+        <v>1234567489</v>
+      </c>
+      <c r="E15">
+        <v>1234567489</v>
+      </c>
+      <c r="F15">
+        <v>1234567489</v>
+      </c>
+      <c r="G15">
+        <v>1234567489</v>
+      </c>
+      <c r="H15">
+        <v>1234567489</v>
+      </c>
+      <c r="I15">
+        <v>1234567489</v>
+      </c>
+      <c r="J15">
+        <v>1234567489</v>
+      </c>
+      <c r="K15">
+        <v>1234567489</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1234567489</v>
+      </c>
+      <c r="B16">
+        <v>1234567489</v>
+      </c>
+      <c r="C16">
+        <v>1234567489</v>
+      </c>
+      <c r="D16">
+        <v>1234567489</v>
+      </c>
+      <c r="E16">
+        <v>1234567489</v>
+      </c>
+      <c r="F16">
+        <v>1234567489</v>
+      </c>
+      <c r="G16">
+        <v>1234567489</v>
+      </c>
+      <c r="H16">
+        <v>1234567489</v>
+      </c>
+      <c r="I16">
+        <v>1234567489</v>
+      </c>
+      <c r="J16">
+        <v>1234567489</v>
+      </c>
+      <c r="K16">
+        <v>1234567489</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1234567489</v>
+      </c>
+      <c r="B17">
+        <v>1234567489</v>
+      </c>
+      <c r="C17">
+        <v>1234567489</v>
+      </c>
+      <c r="D17">
+        <v>1234567489</v>
+      </c>
+      <c r="E17">
+        <v>1234567489</v>
+      </c>
+      <c r="F17">
+        <v>1234567489</v>
+      </c>
+      <c r="G17">
+        <v>1234567489</v>
+      </c>
+      <c r="H17">
+        <v>1234567489</v>
+      </c>
+      <c r="I17">
+        <v>1234567489</v>
+      </c>
+      <c r="J17">
+        <v>1234567489</v>
+      </c>
+      <c r="K17">
+        <v>1234567489</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1234567489</v>
+      </c>
+      <c r="B18">
+        <v>1234567489</v>
+      </c>
+      <c r="C18">
+        <v>1234567489</v>
+      </c>
+      <c r="D18">
+        <v>1234567489</v>
+      </c>
+      <c r="E18">
+        <v>1234567489</v>
+      </c>
+      <c r="F18">
+        <v>1234567489</v>
+      </c>
+      <c r="G18">
+        <v>1234567489</v>
+      </c>
+      <c r="H18">
+        <v>1234567489</v>
+      </c>
+      <c r="I18">
+        <v>1234567489</v>
+      </c>
+      <c r="J18">
+        <v>1234567489</v>
+      </c>
+      <c r="K18">
+        <v>1234567489</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1234567489</v>
+      </c>
+      <c r="B19">
+        <v>1234567489</v>
+      </c>
+      <c r="C19">
+        <v>1234567489</v>
+      </c>
+      <c r="D19">
+        <v>1234567489</v>
+      </c>
+      <c r="E19">
+        <v>1234567489</v>
+      </c>
+      <c r="F19">
+        <v>1234567489</v>
+      </c>
+      <c r="G19">
+        <v>1234567489</v>
+      </c>
+      <c r="H19">
+        <v>1234567489</v>
+      </c>
+      <c r="I19">
+        <v>1234567489</v>
+      </c>
+      <c r="J19">
+        <v>1234567489</v>
+      </c>
+      <c r="K19">
+        <v>1234567489</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1234567489</v>
+      </c>
+      <c r="B20">
+        <v>1234567489</v>
+      </c>
+      <c r="C20">
+        <v>1234567489</v>
+      </c>
+      <c r="D20">
+        <v>1234567489</v>
+      </c>
+      <c r="E20">
+        <v>1234567489</v>
+      </c>
+      <c r="F20">
+        <v>1234567489</v>
+      </c>
+      <c r="G20">
+        <v>1234567489</v>
+      </c>
+      <c r="H20">
+        <v>1234567489</v>
+      </c>
+      <c r="I20">
+        <v>1234567489</v>
+      </c>
+      <c r="J20">
+        <v>1234567489</v>
+      </c>
+      <c r="K20">
+        <v>1234567489</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1234567489</v>
+      </c>
+      <c r="B21">
+        <v>1234567489</v>
+      </c>
+      <c r="C21">
+        <v>1234567489</v>
+      </c>
+      <c r="D21">
+        <v>1234567489</v>
+      </c>
+      <c r="E21">
+        <v>1234567489</v>
+      </c>
+      <c r="F21">
+        <v>1234567489</v>
+      </c>
+      <c r="G21">
+        <v>1234567489</v>
+      </c>
+      <c r="H21">
+        <v>1234567489</v>
+      </c>
+      <c r="I21">
+        <v>1234567489</v>
+      </c>
+      <c r="J21">
+        <v>1234567489</v>
+      </c>
+      <c r="K21">
+        <v>1234567489</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1234567489</v>
+      </c>
+      <c r="B22">
+        <v>1234567489</v>
+      </c>
+      <c r="C22">
+        <v>1234567489</v>
+      </c>
+      <c r="D22">
+        <v>1234567489</v>
+      </c>
+      <c r="E22">
+        <v>1234567489</v>
+      </c>
+      <c r="F22">
+        <v>1234567489</v>
+      </c>
+      <c r="G22">
+        <v>1234567489</v>
+      </c>
+      <c r="H22">
+        <v>1234567489</v>
+      </c>
+      <c r="I22">
+        <v>1234567489</v>
+      </c>
+      <c r="J22">
+        <v>1234567489</v>
+      </c>
+      <c r="K22">
+        <v>1234567489</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1234567489</v>
+      </c>
+      <c r="B23">
+        <v>1234567489</v>
+      </c>
+      <c r="C23">
+        <v>1234567489</v>
+      </c>
+      <c r="D23">
+        <v>1234567489</v>
+      </c>
+      <c r="E23">
+        <v>1234567489</v>
+      </c>
+      <c r="F23">
+        <v>1234567489</v>
+      </c>
+      <c r="G23">
+        <v>1234567489</v>
+      </c>
+      <c r="H23">
+        <v>1234567489</v>
+      </c>
+      <c r="I23">
+        <v>1234567489</v>
+      </c>
+      <c r="J23">
+        <v>1234567489</v>
+      </c>
+      <c r="K23">
+        <v>1234567489</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1234567489</v>
+      </c>
+      <c r="B24">
+        <v>1234567489</v>
+      </c>
+      <c r="C24">
+        <v>1234567489</v>
+      </c>
+      <c r="D24">
+        <v>1234567489</v>
+      </c>
+      <c r="E24">
+        <v>1234567489</v>
+      </c>
+      <c r="F24">
+        <v>1234567489</v>
+      </c>
+      <c r="G24">
+        <v>1234567489</v>
+      </c>
+      <c r="H24">
+        <v>1234567489</v>
+      </c>
+      <c r="I24">
+        <v>1234567489</v>
+      </c>
+      <c r="J24">
+        <v>1234567489</v>
+      </c>
+      <c r="K24">
+        <v>1234567489</v>
       </c>
     </row>
   </sheetData>

--- a/Hello.xlsx
+++ b/Hello.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vroozi\Desktop\Bash\TestProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Waheed Nawaz\Desktop\Git\TestProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1950" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="2400" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,12 +24,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="6">
   <si>
     <t>Helo</t>
   </si>
   <si>
     <t>Waheed</t>
+  </si>
+  <si>
+    <t>Hbdksabd;</t>
+  </si>
+  <si>
+    <t>hlsd;abdosa'b</t>
+  </si>
+  <si>
+    <t>asbuadb</t>
+  </si>
+  <si>
+    <t>b;'odfb'abda</t>
   </si>
 </sst>
 </file>
@@ -350,7 +362,7 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -502,6 +514,20 @@
         <v>1</v>
       </c>
     </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>5</v>
+      </c>
+    </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1234567489</v>
@@ -569,181 +595,6 @@
         <v>1234567489</v>
       </c>
       <c r="K16">
-        <v>1234567489</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>1234567489</v>
-      </c>
-      <c r="B17">
-        <v>1234567489</v>
-      </c>
-      <c r="C17">
-        <v>1234567489</v>
-      </c>
-      <c r="D17">
-        <v>1234567489</v>
-      </c>
-      <c r="E17">
-        <v>1234567489</v>
-      </c>
-      <c r="F17">
-        <v>1234567489</v>
-      </c>
-      <c r="G17">
-        <v>1234567489</v>
-      </c>
-      <c r="H17">
-        <v>1234567489</v>
-      </c>
-      <c r="I17">
-        <v>1234567489</v>
-      </c>
-      <c r="J17">
-        <v>1234567489</v>
-      </c>
-      <c r="K17">
-        <v>1234567489</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>1234567489</v>
-      </c>
-      <c r="B18">
-        <v>1234567489</v>
-      </c>
-      <c r="C18">
-        <v>1234567489</v>
-      </c>
-      <c r="D18">
-        <v>1234567489</v>
-      </c>
-      <c r="E18">
-        <v>1234567489</v>
-      </c>
-      <c r="F18">
-        <v>1234567489</v>
-      </c>
-      <c r="G18">
-        <v>1234567489</v>
-      </c>
-      <c r="H18">
-        <v>1234567489</v>
-      </c>
-      <c r="I18">
-        <v>1234567489</v>
-      </c>
-      <c r="J18">
-        <v>1234567489</v>
-      </c>
-      <c r="K18">
-        <v>1234567489</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>1234567489</v>
-      </c>
-      <c r="B19">
-        <v>1234567489</v>
-      </c>
-      <c r="C19">
-        <v>1234567489</v>
-      </c>
-      <c r="D19">
-        <v>1234567489</v>
-      </c>
-      <c r="E19">
-        <v>1234567489</v>
-      </c>
-      <c r="F19">
-        <v>1234567489</v>
-      </c>
-      <c r="G19">
-        <v>1234567489</v>
-      </c>
-      <c r="H19">
-        <v>1234567489</v>
-      </c>
-      <c r="I19">
-        <v>1234567489</v>
-      </c>
-      <c r="J19">
-        <v>1234567489</v>
-      </c>
-      <c r="K19">
-        <v>1234567489</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>1234567489</v>
-      </c>
-      <c r="B20">
-        <v>1234567489</v>
-      </c>
-      <c r="C20">
-        <v>1234567489</v>
-      </c>
-      <c r="D20">
-        <v>1234567489</v>
-      </c>
-      <c r="E20">
-        <v>1234567489</v>
-      </c>
-      <c r="F20">
-        <v>1234567489</v>
-      </c>
-      <c r="G20">
-        <v>1234567489</v>
-      </c>
-      <c r="H20">
-        <v>1234567489</v>
-      </c>
-      <c r="I20">
-        <v>1234567489</v>
-      </c>
-      <c r="J20">
-        <v>1234567489</v>
-      </c>
-      <c r="K20">
-        <v>1234567489</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>1234567489</v>
-      </c>
-      <c r="B21">
-        <v>1234567489</v>
-      </c>
-      <c r="C21">
-        <v>1234567489</v>
-      </c>
-      <c r="D21">
-        <v>1234567489</v>
-      </c>
-      <c r="E21">
-        <v>1234567489</v>
-      </c>
-      <c r="F21">
-        <v>1234567489</v>
-      </c>
-      <c r="G21">
-        <v>1234567489</v>
-      </c>
-      <c r="H21">
-        <v>1234567489</v>
-      </c>
-      <c r="I21">
-        <v>1234567489</v>
-      </c>
-      <c r="J21">
-        <v>1234567489</v>
-      </c>
-      <c r="K21">
         <v>1234567489</v>
       </c>
     </row>
